--- a/excel/exported/users.xlsx
+++ b/excel/exported/users.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>$2a$10$F.4Ms7eE7Mfv/xAxe7MaLOqhSGdrIOXBu36ItTcCJ4SAYXhiSVX/m</t>
+    <t>$2a$10$i230hZ8iOP6wGU0aQ2G5X.RVIGREGiHgzAxuX1sDn923gksO3/28u</t>
   </si>
   <si>
     <t>Admin SJA</t>
@@ -33,70 +33,58 @@
     <t>active</t>
   </si>
   <si>
-    <t>2020-10-06 19:54:05.0000000</t>
+    <t>2021-03-27 11:28:32.0000000</t>
   </si>
   <si>
     <t>operator</t>
   </si>
   <si>
-    <t>$2a$10$ZYPfDaTKs23qphyDxVvXzO7.9eGYLcKVEMOGN8ROxfA/JaTcCfiBC</t>
+    <t>$2a$10$eSEavhQaSj0heGNNiGnRp.YeqN9URI2DDhzDtNjNt5u5eqC8cd9wy</t>
+  </si>
+  <si>
+    <t>Operator SJA</t>
+  </si>
+  <si>
+    <t>1980-01-01</t>
+  </si>
+  <si>
+    <t>2021-03-27 18:28:32.0000000</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:51:42.0000000</t>
   </si>
   <si>
     <t>commander</t>
   </si>
   <si>
-    <t>$2a$10$5LQt0KrCglCuIbVv/Krjf.WokXmNNPyD/sAXi.8FkcTY70tW8bWK2</t>
+    <t>$2a$10$zmtOHyvVoYZ1n8u.QagPNuAZHGMimWWPlO07g4mz7L48e8wECgZXC</t>
   </si>
   <si>
     <t>Commander SJA</t>
   </si>
   <si>
-    <t>Iqbal</t>
-  </si>
-  <si>
-    <t>$2a$10$eXqj1RDLsmrPlHexSLi95u3AV52oAY8wZNSBW/C13Q7x9cCTgFC4m</t>
-  </si>
-  <si>
-    <t>1980-01-01</t>
-  </si>
-  <si>
-    <t>2020-10-09 15:12:34.0000000</t>
-  </si>
-  <si>
-    <t>2020-10-09 16:14:44.0000000</t>
-  </si>
-  <si>
-    <t>annisa21</t>
-  </si>
-  <si>
-    <t>$2a$10$9qMzm6EimvyUs8q2ZeI62uMkXmstQlOCoUFrmAwnF0XxxC2VRE2Ea</t>
-  </si>
-  <si>
-    <t>annisa juniarti candra setiani</t>
-  </si>
-  <si>
-    <t>2020-10-09 08:50:44.0000000</t>
-  </si>
-  <si>
-    <t>lukmanhm</t>
-  </si>
-  <si>
-    <t>$2a$10$1uKJzfcxsdfQpio4YvOs.OoHJChfWuPAdmsc.hQcyO0vgnhWkLmOS</t>
-  </si>
-  <si>
-    <t>lukmanul hakim</t>
-  </si>
-  <si>
-    <t>2020-10-09 10:20:39.0000000</t>
-  </si>
-  <si>
-    <t>operatortes</t>
-  </si>
-  <si>
-    <t>$2a$10$PsSVRGUu8q0nF82f6Vmdtee3Kg.Fo7bY4vs3jB1Ma8e97CjpTMrrm</t>
-  </si>
-  <si>
-    <t>2020-11-04 23:59:20.0000000</t>
+    <t>Dadang</t>
+  </si>
+  <si>
+    <t>$2a$10$nK3jRZta4XY13HgLAZexWu4I.mhYqdDTN6vHmO7qKtj5xtlByH.Bm</t>
+  </si>
+  <si>
+    <t>Dadang Prihatin B</t>
+  </si>
+  <si>
+    <t>2021-03-30 14:46:33.0000000</t>
+  </si>
+  <si>
+    <t>udin</t>
+  </si>
+  <si>
+    <t>$2a$10$19h18ePslAYogs9AqCO/rebCeEFa//tT9s8vZsRwfXQxhz5xsXVH2</t>
+  </si>
+  <si>
+    <t>M Sholichudin</t>
+  </si>
+  <si>
+    <t>2021-03-30 15:03:04.0000000</t>
   </si>
 </sst>
 </file>
@@ -140,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -183,22 +171,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -206,13 +194,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -232,118 +220,60 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1002</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1003</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exported/users.xlsx
+++ b/excel/exported/users.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>$2a$10$i230hZ8iOP6wGU0aQ2G5X.RVIGREGiHgzAxuX1sDn923gksO3/28u</t>
+    <t>$2a$10$F.4Ms7eE7Mfv/xAxe7MaLOqhSGdrIOXBu36ItTcCJ4SAYXhiSVX/m</t>
   </si>
   <si>
     <t>Admin SJA</t>
@@ -33,58 +33,70 @@
     <t>active</t>
   </si>
   <si>
-    <t>2021-03-27 11:28:32.0000000</t>
+    <t>2020-10-06 19:54:05.0000000</t>
   </si>
   <si>
     <t>operator</t>
   </si>
   <si>
-    <t>$2a$10$eSEavhQaSj0heGNNiGnRp.YeqN9URI2DDhzDtNjNt5u5eqC8cd9wy</t>
-  </si>
-  <si>
-    <t>Operator SJA</t>
+    <t>$2a$10$ZYPfDaTKs23qphyDxVvXzO7.9eGYLcKVEMOGN8ROxfA/JaTcCfiBC</t>
+  </si>
+  <si>
+    <t>commander</t>
+  </si>
+  <si>
+    <t>$2a$10$5LQt0KrCglCuIbVv/Krjf.WokXmNNPyD/sAXi.8FkcTY70tW8bWK2</t>
+  </si>
+  <si>
+    <t>Commander SJA</t>
+  </si>
+  <si>
+    <t>Iqbal</t>
+  </si>
+  <si>
+    <t>$2a$10$eXqj1RDLsmrPlHexSLi95u3AV52oAY8wZNSBW/C13Q7x9cCTgFC4m</t>
   </si>
   <si>
     <t>1980-01-01</t>
   </si>
   <si>
-    <t>2021-03-27 18:28:32.0000000</t>
-  </si>
-  <si>
-    <t>2021-03-27 11:51:42.0000000</t>
-  </si>
-  <si>
-    <t>commander</t>
-  </si>
-  <si>
-    <t>$2a$10$zmtOHyvVoYZ1n8u.QagPNuAZHGMimWWPlO07g4mz7L48e8wECgZXC</t>
-  </si>
-  <si>
-    <t>Commander SJA</t>
-  </si>
-  <si>
-    <t>Dadang</t>
-  </si>
-  <si>
-    <t>$2a$10$nK3jRZta4XY13HgLAZexWu4I.mhYqdDTN6vHmO7qKtj5xtlByH.Bm</t>
-  </si>
-  <si>
-    <t>Dadang Prihatin B</t>
-  </si>
-  <si>
-    <t>2021-03-30 14:46:33.0000000</t>
-  </si>
-  <si>
-    <t>udin</t>
-  </si>
-  <si>
-    <t>$2a$10$19h18ePslAYogs9AqCO/rebCeEFa//tT9s8vZsRwfXQxhz5xsXVH2</t>
-  </si>
-  <si>
-    <t>M Sholichudin</t>
-  </si>
-  <si>
-    <t>2021-03-30 15:03:04.0000000</t>
+    <t>2020-10-09 15:12:34.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:14:44.0000000</t>
+  </si>
+  <si>
+    <t>annisa21</t>
+  </si>
+  <si>
+    <t>$2a$10$9qMzm6EimvyUs8q2ZeI62uMkXmstQlOCoUFrmAwnF0XxxC2VRE2Ea</t>
+  </si>
+  <si>
+    <t>annisa juniarti candra setiani</t>
+  </si>
+  <si>
+    <t>2020-10-09 08:50:44.0000000</t>
+  </si>
+  <si>
+    <t>lukmanhm</t>
+  </si>
+  <si>
+    <t>$2a$10$1uKJzfcxsdfQpio4YvOs.OoHJChfWuPAdmsc.hQcyO0vgnhWkLmOS</t>
+  </si>
+  <si>
+    <t>lukmanul hakim</t>
+  </si>
+  <si>
+    <t>2020-10-09 10:20:39.0000000</t>
+  </si>
+  <si>
+    <t>operatortes</t>
+  </si>
+  <si>
+    <t>$2a$10$PsSVRGUu8q0nF82f6Vmdtee3Kg.Fo7bY4vs3jB1Ma8e97CjpTMrrm</t>
+  </si>
+  <si>
+    <t>2020-11-04 23:59:20.0000000</t>
   </si>
 </sst>
 </file>
@@ -128,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -171,22 +183,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -194,13 +206,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -220,60 +232,118 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
-        <v>23</v>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
